--- a/RouteSchedule.xlsx
+++ b/RouteSchedule.xlsx
@@ -1,46 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marshallhuckins/Desktop/AMS Routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marshallhuckins/Desktop/Desktop - Marshall’s MacBook Air/AMS Routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651B7A08-DF85-234C-80B2-B3C29AC430E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3379D09A-FA9D-CA43-B422-FAF69B68C78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="21440" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="21440" firstSheet="22" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BR30_1" sheetId="1" r:id="rId1"/>
     <sheet name="BR30_2" sheetId="2" r:id="rId2"/>
     <sheet name="BR30_3" sheetId="3" r:id="rId3"/>
     <sheet name="BR30_4" sheetId="4" r:id="rId4"/>
-    <sheet name="MethodPolicy" sheetId="23" r:id="rId5"/>
-    <sheet name="BR60_63_62_A" sheetId="5" r:id="rId6"/>
-    <sheet name="BR60_63_62_B" sheetId="6" r:id="rId7"/>
-    <sheet name="BR60_BR64" sheetId="10" r:id="rId8"/>
-    <sheet name="BR60_BR64_B" sheetId="24" r:id="rId9"/>
-    <sheet name="BR60_BR64_BR65_A" sheetId="7" r:id="rId10"/>
-    <sheet name="BR60_BR64_BR65_B" sheetId="8" r:id="rId11"/>
-    <sheet name="BR60_BR34" sheetId="9" r:id="rId12"/>
-    <sheet name="BR60_BR82" sheetId="11" r:id="rId13"/>
-    <sheet name="BR51_6" sheetId="12" r:id="rId14"/>
-    <sheet name="BR51_5" sheetId="13" r:id="rId15"/>
-    <sheet name="BR51_Night_A" sheetId="14" r:id="rId16"/>
-    <sheet name="BR51_Night_B" sheetId="15" r:id="rId17"/>
-    <sheet name="BR51_Night_C" sheetId="16" r:id="rId18"/>
-    <sheet name="BR51_Night_D" sheetId="17" r:id="rId19"/>
-    <sheet name="BR30_Night_A" sheetId="18" r:id="rId20"/>
-    <sheet name="BR30_Night_B" sheetId="19" r:id="rId21"/>
-    <sheet name="BR30_Night_C" sheetId="20" r:id="rId22"/>
-    <sheet name="BR30_Night_D" sheetId="21" r:id="rId23"/>
-    <sheet name="BR30_Night_E" sheetId="22" r:id="rId24"/>
-    <sheet name="BR60_Night_A" sheetId="25" r:id="rId25"/>
+    <sheet name="60_CB_CORN_EVEN" sheetId="5" r:id="rId5"/>
+    <sheet name="60_CB_CORN_ODD" sheetId="6" r:id="rId6"/>
+    <sheet name="60_BR64" sheetId="10" r:id="rId7"/>
+    <sheet name="60_BR64_B" sheetId="24" r:id="rId8"/>
+    <sheet name="60_BELLEVUE_GLENWOOD_EVEN" sheetId="7" r:id="rId9"/>
+    <sheet name="60_BELLEVUE_GLENWOOD_ODD" sheetId="8" r:id="rId10"/>
+    <sheet name="60_SIOUXCITY_MIDDAY" sheetId="9" r:id="rId11"/>
+    <sheet name="60_ATLANTIC_SHUTTLE" sheetId="11" r:id="rId12"/>
+    <sheet name="60_NORTH_MIDDAY_73_68_78" sheetId="31" r:id="rId13"/>
+    <sheet name="60_GRAND_ISLAND_MIDDAY" sheetId="32" r:id="rId14"/>
+    <sheet name="60_GRAND_ISLAND_NT" sheetId="33" r:id="rId15"/>
+    <sheet name="60_RED_NT" sheetId="34" r:id="rId16"/>
+    <sheet name="60_MISSOURI_EAST_NT" sheetId="35" r:id="rId17"/>
+    <sheet name="60_WEST_NT" sheetId="36" r:id="rId18"/>
+    <sheet name="60_LINCOLN_MIDDAY" sheetId="30" r:id="rId19"/>
+    <sheet name="BR51_6" sheetId="12" r:id="rId20"/>
+    <sheet name="BR51_5" sheetId="13" r:id="rId21"/>
+    <sheet name="BR51_Night_A" sheetId="14" r:id="rId22"/>
+    <sheet name="BR51_Night_B" sheetId="15" r:id="rId23"/>
+    <sheet name="BR51_Night_C" sheetId="16" r:id="rId24"/>
+    <sheet name="BR51_Night_D" sheetId="17" r:id="rId25"/>
+    <sheet name="BR30_Night_A" sheetId="18" r:id="rId26"/>
+    <sheet name="BR30_Night_B" sheetId="19" r:id="rId27"/>
+    <sheet name="BR30_Night_C" sheetId="20" r:id="rId28"/>
+    <sheet name="BR30_Night_D" sheetId="21" r:id="rId29"/>
+    <sheet name="BR30_Night_E" sheetId="22" r:id="rId30"/>
+    <sheet name="83_EM_North" sheetId="26" r:id="rId31"/>
+    <sheet name="83_EM_SOUTH" sheetId="27" r:id="rId32"/>
+    <sheet name="83_NT" sheetId="28" r:id="rId33"/>
+    <sheet name="83_LM" sheetId="29" r:id="rId34"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">BR30_Night_B!$G$2:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">BR30_Night_B!$G$2:$G$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="132">
   <si>
     <t>Trip_ID</t>
   </si>
@@ -176,9 +185,6 @@
     <t>BR34</t>
   </si>
   <si>
-    <t>BR60_63_62_A</t>
-  </si>
-  <si>
     <t>BR60</t>
   </si>
   <si>
@@ -194,21 +200,6 @@
     <t>BR65</t>
   </si>
   <si>
-    <t>BR60_BR64_BR65_A</t>
-  </si>
-  <si>
-    <t>BR60_BR64_BR65_B</t>
-  </si>
-  <si>
-    <t>BR60_BR34</t>
-  </si>
-  <si>
-    <t>BR60_BR64</t>
-  </si>
-  <si>
-    <t>BR60_BR82</t>
-  </si>
-  <si>
     <t>BR82</t>
   </si>
   <si>
@@ -356,41 +347,131 @@
     <t>LM</t>
   </si>
   <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>AllowedTripPrefixes</t>
-  </si>
-  <si>
-    <t>BR60_BR64_BR65_A, BR60_BR64_BR65_B</t>
-  </si>
-  <si>
-    <t>BR60_BR64_B</t>
-  </si>
-  <si>
-    <t>BR60_63_62_A, BR60_63_62_B</t>
-  </si>
-  <si>
-    <t>BR60_BR64_BR65_A, BR60_BR64_BR65_B, BR60_BR64</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>BR60_Night_A</t>
+    <t>BR83</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>BR77</t>
+  </si>
+  <si>
+    <t>BR76</t>
+  </si>
+  <si>
+    <t>BR70</t>
+  </si>
+  <si>
+    <t>BR84</t>
+  </si>
+  <si>
+    <t>60_CB_CORN_EVEN</t>
+  </si>
+  <si>
+    <t>60_CB_CORN_ODD</t>
+  </si>
+  <si>
+    <t>60_BELLEVUE_GLENWOOD_EVEN</t>
+  </si>
+  <si>
+    <t>60_BELLEVUE_GLENWOOD_ODD</t>
+  </si>
+  <si>
+    <t>60_LINCOLN_MIDDAY</t>
+  </si>
+  <si>
+    <t>BR66</t>
+  </si>
+  <si>
+    <t>60_SIOUXCITY_MIDDAY</t>
+  </si>
+  <si>
+    <t>60_ATLANTIC_SHUTTLE</t>
+  </si>
+  <si>
+    <t>60_NORTH_MIDDAY_73_68_78</t>
+  </si>
+  <si>
+    <t>BR73</t>
+  </si>
+  <si>
+    <t>BR68</t>
+  </si>
+  <si>
+    <t>BR78</t>
+  </si>
+  <si>
+    <t>79 GETS DROPPED OFF/PICKED UP HERE</t>
+  </si>
+  <si>
+    <t>60_NORTH_MIDDAY_73_68_79</t>
+  </si>
+  <si>
+    <t>60_NORTH_MIDDAY_73_68_80</t>
+  </si>
+  <si>
+    <t>60_NORTH_MIDDAY_73_68_81</t>
+  </si>
+  <si>
+    <t>60_NORTH_MIDDAY_73_68_82</t>
+  </si>
+  <si>
+    <t>60_GRAND_ISLAND_MIDDAY</t>
+  </si>
+  <si>
+    <t>BR85</t>
+  </si>
+  <si>
+    <t>60_GRAND_ISLAND_NT</t>
+  </si>
+  <si>
+    <t>60_RED_NT</t>
+  </si>
+  <si>
+    <t>BR79</t>
+  </si>
+  <si>
+    <t>60_MISSOURI_EAST_NT</t>
+  </si>
+  <si>
+    <t>60_WEST_NT</t>
+  </si>
+  <si>
+    <t>BR69</t>
+  </si>
+  <si>
+    <t>BR67</t>
+  </si>
+  <si>
+    <t>60_BR64</t>
+  </si>
+  <si>
+    <t>60_BR64_B</t>
+  </si>
+  <si>
+    <t>SHU</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>83_EM_North</t>
+  </si>
+  <si>
+    <t>83_EM_SOUTH</t>
+  </si>
+  <si>
+    <t>83_NT</t>
+  </si>
+  <si>
+    <t>83_LM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +519,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +536,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -503,11 +592,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -529,6 +627,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,9 +936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -842,7 +949,7 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,8 +968,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -879,7 +989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -899,7 +1009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -919,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -939,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -962,273 +1072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C3F466-EEC1-6548-8F82-093A399C5022}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.43402777777777779</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.51736111111111116</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.65625</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E38B432-80D0-084C-9C24-9561C3C327AE}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="A2:G14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1255,19 +1103,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>0.375</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1276,15 +1124,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>0.3923611111111111</v>
@@ -1299,15 +1147,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>0.41319444444444442</v>
@@ -1322,21 +1170,21 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>0.44791666666666669</v>
       </c>
       <c r="D5" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1345,15 +1193,15 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>0.47569444444444442</v>
@@ -1368,15 +1216,15 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>0.49652777777777779</v>
@@ -1391,21 +1239,21 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>0.53125</v>
       </c>
       <c r="D8" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1414,15 +1262,15 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>0.55902777777777779</v>
@@ -1437,15 +1285,15 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>0.57986111111111116</v>
@@ -1460,21 +1308,21 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="D11" s="2">
-        <v>0.625</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1483,15 +1331,15 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>0.64236111111111116</v>
@@ -1506,15 +1354,15 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>0.66319444444444442</v>
@@ -1529,15 +1377,15 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
         <v>0.69791666666666663</v>
@@ -1549,7 +1397,108 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5654A771-B573-A542-AE3A-EDA834F02BFC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1558,16 +1507,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5654A771-B573-A542-AE3A-EDA834F02BFC}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49763124-1699-7D4B-B9EF-92F40DAC1909}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1586,16 +1535,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>0.4826388888888889</v>
+        <v>0.40625</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1603,16 +1555,22 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
-        <v>0.56597222222222221</v>
+        <v>0.46527777777777779</v>
       </c>
       <c r="D3" s="2">
-        <v>0.57291666666666663</v>
+        <v>0.46875</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1620,13 +1578,22 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>0.67013888888888884</v>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.53125</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1634,23 +1601,70 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49763124-1699-7D4B-B9EF-92F40DAC1909}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1187C91-8616-9745-98C9-DCF5A12305EF}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1669,16 +1683,22 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1686,19 +1706,22 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D3" s="2">
-        <v>0.46875</v>
+        <v>0.53125</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1706,19 +1729,22 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2">
-        <v>0.53125</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="D4" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1726,19 +1752,22 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D5" s="2">
-        <v>0.59375</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1746,22 +1775,31 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2">
-        <v>0.65625</v>
+        <v>0.6875</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1771,6 +1809,996 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F1648B-214D-7548-97EE-C5E9970A9FC3}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3254C4-E8BB-CA4C-8E9A-3A2CF48FD7C2}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3992E15C-8544-A94D-B443-1EA62C6EB477}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7BB505-331C-7F4C-BAE9-1BDF4EDE982F}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA06B990-1EE7-0B4E-8B60-63D05407C907}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885BC41D-4C36-884F-B715-968C4CD5CB72}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20568EDA-179F-1C44-ABA9-5A9A58C75F1D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1802,10 +2830,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>0.41666666666666669</v>
@@ -1819,10 +2847,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>0.45833333333333331</v>
@@ -1839,10 +2867,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>0.51736111111111116</v>
@@ -1859,10 +2887,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>0.56597222222222221</v>
@@ -1879,10 +2907,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>0.64583333333333337</v>
@@ -1900,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100D656A-C838-364D-8F00-92D41823B05F}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1932,10 +2960,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>0.54166666666666663</v>
@@ -1949,10 +2977,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>0.58333333333333337</v>
@@ -1969,10 +2997,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>0.64236111111111116</v>
@@ -1989,10 +3017,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>0.69791666666666663</v>
@@ -2009,7 +3037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB832C08-9D0F-2847-ADB0-980AC0E193E8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2042,15 +3070,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>0.72916666666666663</v>
@@ -2062,15 +3090,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2079,15 +3107,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2096,15 +3124,15 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2113,15 +3141,15 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2130,15 +3158,15 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -2147,15 +3175,15 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>0.33333333333333331</v>
@@ -2167,7 +3195,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +3203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02F8342-6DF4-994A-A879-6C1FFC4503B3}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2205,15 +3233,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>0.72916666666666663</v>
@@ -2225,15 +3253,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2242,15 +3270,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2259,15 +3287,15 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2276,15 +3304,15 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2293,15 +3321,15 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
         <v>0.33333333333333331</v>
@@ -2313,7 +3341,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E77C6C-0B2D-C446-BCC9-C8B2385EA71B}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2351,15 +3379,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>0.72916666666666663</v>
@@ -2371,15 +3399,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2388,15 +3416,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2405,15 +3433,15 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2422,15 +3450,15 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>0.33333333333333331</v>
@@ -2442,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8361D3EB-46CF-E14F-A211-3720BA3FE029}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -2481,15 +3509,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>0.72916666666666663</v>
@@ -2501,15 +3529,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2518,15 +3546,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2535,15 +3563,15 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2552,15 +3580,15 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2569,15 +3597,15 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -2586,15 +3614,15 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2603,15 +3631,15 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>0.33333333333333331</v>
@@ -2623,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2631,116 +3659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA0C3CF-67BD-3F46-B5EA-05756EEE6C40}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2770,12 +3689,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2790,15 +3709,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2807,12 +3726,12 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -2824,12 +3743,12 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -2841,12 +3760,12 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -2858,12 +3777,12 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2878,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2886,7 +3805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F2857C-EA9E-CB49-9CF8-07047A99E53B}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2919,12 +3838,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2939,12 +3858,12 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2956,12 +3875,12 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -2973,15 +3892,15 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2990,15 +3909,15 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3007,15 +3926,15 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -3024,15 +3943,15 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -3041,15 +3960,15 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3058,12 +3977,12 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -3078,7 +3997,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3087,7 +4006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422AE880-0C69-104F-AA9B-DA4856BD7616}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3117,12 +4036,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3137,12 +4056,12 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -3154,15 +4073,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3171,15 +4090,15 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3188,12 +4107,12 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -3205,12 +4124,12 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -3222,12 +4141,12 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -3239,15 +4158,15 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3256,12 +4175,12 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -3273,12 +4192,12 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -3293,7 +4212,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +4221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46399228-8395-7647-B644-8C049B767FB1}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3332,12 +4251,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3352,15 +4271,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3369,15 +4288,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3386,15 +4305,15 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3403,12 +4322,12 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -3423,7 +4342,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +4350,159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E95C35C-82EF-AE4F-9BDF-8EDBBC469555}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB5B155-5FF2-2144-9081-38DF5FF7C409}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3464,12 +4535,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3484,12 +4555,12 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -3501,12 +4572,12 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -3518,15 +4589,15 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3535,15 +4606,15 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3552,12 +4623,12 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3572,7 +4643,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3580,12 +4651,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1284CA61-2F8C-2544-9F3E-6D4830809CB1}">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538A7D11-9BEC-DE43-B110-52E6248351DE}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216DADC4-5F76-6D4D-AA35-839615F53477}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3610,18 +4808,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2">
-        <v>0.72916666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3630,18 +4828,22 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -3649,18 +4851,22 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -3668,18 +4874,21 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.57986111111111116</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3688,7 +4897,27 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3696,148 +4925,296 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E95C35C-82EF-AE4F-9BDF-8EDBBC469555}">
-  <dimension ref="A1:F7"/>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F353A1C7-62FC-C84A-BDFD-003B4C4A7713}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E5">
+      <c r="G1" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.90625</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E5" s="7">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C6" s="2">
-        <v>0.57986111111111116</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D6" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E6">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E6" s="12">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C7" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22F097-E2E5-874D-8EDF-90425A618917}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="11">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +5227,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3874,8 +5251,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3896,7 +5273,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3919,7 +5296,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3942,7 +5319,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3965,7 +5342,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -3988,7 +5365,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4011,7 +5388,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4034,7 +5411,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4055,7 +5432,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4064,282 +5441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F38CA16-A55A-0B48-A883-B3F34B26ACC8}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.62083333333333335</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.66319444444444442</v>
-      </c>
-      <c r="E6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.66388888888888886</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.72847222222222219</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="E9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.72847222222222219</v>
-      </c>
-      <c r="E10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB1D438-269D-6344-AAB6-4CB84A923FB3}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4366,19 +5472,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
       <c r="D2" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4387,15 +5493,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>0.35069444444444442</v>
@@ -4410,15 +5516,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>0.37152777777777779</v>
@@ -4433,21 +5539,21 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>0.40625</v>
       </c>
       <c r="D5" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4456,15 +5562,15 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>0.43402777777777779</v>
@@ -4479,15 +5585,15 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>0.4548611111111111</v>
@@ -4502,21 +5608,21 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>0.48958333333333331</v>
       </c>
       <c r="D8" s="2">
-        <v>0.5</v>
+        <v>0.49652777777777779</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -4525,15 +5631,15 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>0.51736111111111116</v>
@@ -4548,15 +5654,15 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>0.53819444444444442</v>
@@ -4571,21 +5677,21 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>0.57291666666666663</v>
       </c>
       <c r="D11" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.57986111111111116</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -4594,15 +5700,15 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>0.60069444444444442</v>
@@ -4617,15 +5723,15 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>0.62152777777777779</v>
@@ -4640,21 +5746,21 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>0.65625</v>
       </c>
       <c r="D14" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -4663,15 +5769,15 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2">
         <v>0.68402777777777779</v>
@@ -4686,15 +5792,15 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>0.70486111111111116</v>
@@ -4709,15 +5815,15 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>0.73958333333333337</v>
@@ -4729,7 +5835,7 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4738,12 +5844,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9F8785-C8CF-1945-8D60-2C2B7B8C18E0}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4770,19 +5876,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
       <c r="D2" s="2">
-        <v>0.375</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4791,15 +5897,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>0.3923611111111111</v>
@@ -4814,15 +5920,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>0.41319444444444442</v>
@@ -4837,21 +5943,21 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>0.44791666666666669</v>
       </c>
       <c r="D5" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4860,15 +5966,15 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>0.47569444444444442</v>
@@ -4883,15 +5989,15 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>0.49652777777777779</v>
@@ -4906,21 +6012,21 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>0.53125</v>
       </c>
       <c r="D8" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -4929,15 +6035,15 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>0.55902777777777779</v>
@@ -4952,15 +6058,15 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>0.57986111111111116</v>
@@ -4975,21 +6081,21 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="D11" s="2">
-        <v>0.625</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -4998,15 +6104,15 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>0.64236111111111116</v>
@@ -5021,15 +6127,15 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>0.66319444444444442</v>
@@ -5044,15 +6150,15 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>0.69791666666666663</v>
@@ -5065,7 +6171,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5084,12 +6190,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E916533-040C-F74A-848A-305F4573B66B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5113,16 +6219,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
         <v>0.33333333333333331</v>
@@ -5130,19 +6236,19 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>0.35069444444444442</v>
@@ -5153,31 +6259,31 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>0.38194444444444442</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5185,12 +6291,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B98485-1BEC-9A4E-AEDA-1001166E85E7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5217,19 +6323,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>94</v>
+      <c r="G1" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -5238,15 +6344,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>0.68402777777777779</v>
@@ -5261,15 +6367,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>0.71875</v>
@@ -5281,7 +6387,269 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C3F466-EEC1-6548-8F82-093A399C5022}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/RouteSchedule.xlsx
+++ b/RouteSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marshallhuckins/Desktop/Desktop - Marshall’s MacBook Air/AMS Routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F0D8AA-A60C-444E-BDB6-A648F86A5363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB897C0A-8424-D848-B000-02B8D0BDB1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17120" yWindow="700" windowWidth="17080" windowHeight="21440" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7082,7 +7082,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
